--- a/PV Calculadora_JuanM-JeimysP-JesusS.xlsx
+++ b/PV Calculadora_JuanM-JeimysP-JesusS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jey Pérez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JESID PEREZ\Documents\GitHub\APP-PV-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA704812-E448-48D0-A9A3-3E39CD061DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB2DE0-300A-46E8-952E-BDB82C838AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E92C5654-2CF0-4D59-BE1D-12545A38DE0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E92C5654-2CF0-4D59-BE1D-12545A38DE0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>UNIDADES</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>TABLA DE DATOS - PV CALCULATOR</t>
+  </si>
+  <si>
+    <t>Consumo diario en AC</t>
+  </si>
+  <si>
+    <t>Consumo individual</t>
   </si>
 </sst>
 </file>
@@ -242,15 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -264,17 +261,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,613 +598,617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B7D064-1A9B-4E6A-8CD4-6F310C6616AA}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
-    <col min="8" max="8" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="2:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <f>C4*D4*E4</f>
         <v>175</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <f>F4+(F4*0.2)</f>
         <v>210</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="1">
         <f>(C4*D4)+(C5*D5)+(C6*D6)+(C7*D7)+(C8*D8)+(C9*D9)+(C10*D10)+(C11*D11)+(C12*D12)+(C13*D13)+(C14*D14)+(C15*D15)+(C16*D16)+(C17*D17)+(C18*D18)+(C19*D19)+(C20*D20)+(C21*D21)+(C22*D22)+(C23*D23)+(C24*D24)+(C25*D25)+(C26*D26)+(C27*D27)</f>
         <v>510</v>
       </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>24</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F9" si="0">C5*D5*E5</f>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F8" si="0">C5*D5*E5</f>
         <v>2400</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" ref="G5:G27" si="1">F5+(F5*0.2)</f>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G8" si="1">F5+(F5*0.2)</f>
         <v>2880</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="1">
         <f>SUM(D4:D27)</f>
         <v>392</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="J5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>45</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>432</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(F4:F27)</f>
         <v>5125</v>
       </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="J6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>150</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="1">
         <f>SUM(G4:G27)</f>
         <v>6150</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>90</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>1728</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <f>C9*D9*E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <f>F9+(F9*0.2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F27" si="2">C10*D10*E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10:G27" si="3">F10+(F10*0.2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F26" si="2">C10*D10*E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:G26" si="3">F10+(F10*0.2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <f>F12+(F12*0.2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <f>C27*D27*E27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <f>F27+(F27*0.2)</f>
         <v>0</v>
       </c>

--- a/PV Calculadora_JuanM-JeimysP-JesusS.xlsx
+++ b/PV Calculadora_JuanM-JeimysP-JesusS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JESID PEREZ\Documents\GitHub\APP-PV-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB2DE0-300A-46E8-952E-BDB82C838AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78F376-C5BF-4004-B8EC-17BD91A592C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E92C5654-2CF0-4D59-BE1D-12545A38DE0A}"/>
+    <workbookView xWindow="3930" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{E92C5654-2CF0-4D59-BE1D-12545A38DE0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>UNIDADES</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Consumo individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencia unitaria </t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B7D064-1A9B-4E6A-8CD4-6F310C6616AA}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +613,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="47.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -677,7 +681,9 @@
         <f>(C4*D4)+(C5*D5)+(C6*D6)+(C7*D7)+(C8*D8)+(C9*D9)+(C10*D10)+(C11*D11)+(C12*D12)+(C13*D13)+(C14*D14)+(C15*D15)+(C16*D16)+(C17*D17)+(C18*D18)+(C19*D19)+(C20*D20)+(C21*D21)+(C22*D22)+(C23*D23)+(C24*D24)+(C25*D25)+(C26*D26)+(C27*D27)</f>
         <v>510</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
